--- a/data/trans_dic/P41E_2023_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.2789447190116551</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3502212053366243</v>
+        <v>0.3502212053366244</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3168073429243949</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.230369200480592</v>
+        <v>0.2360152906142786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.309928016659357</v>
+        <v>0.307232762146519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2836758619073655</v>
+        <v>0.2864330396581872</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3255263807699267</v>
+        <v>0.3278939371499298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3955004492778277</v>
+        <v>0.3935286690385625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.350510580844202</v>
+        <v>0.350653265167838</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09481573622904012</v>
+        <v>0.0948157362290401</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0825420666998519</v>
+        <v>0.08254206669985188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08884146998688798</v>
+        <v>0.08884146998688797</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07773789478841592</v>
+        <v>0.07871304627061572</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06828830151566481</v>
+        <v>0.06866373363691843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07795446994859082</v>
+        <v>0.0783990383892819</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1136013494785829</v>
+        <v>0.113539154913169</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09854051798396773</v>
+        <v>0.1009057323355032</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1021430172403105</v>
+        <v>0.1013349175731354</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.0438675711941526</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04471754020702272</v>
+        <v>0.04471754020702273</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.04427861641802882</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02840010661233559</v>
+        <v>0.02866044863058607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03045402313661536</v>
+        <v>0.02968764102515173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03276598310830609</v>
+        <v>0.03314407877933954</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0629042629534733</v>
+        <v>0.06419913868106286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0664431802348608</v>
+        <v>0.06437971752676301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05806545550108367</v>
+        <v>0.05769441676465828</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09886108671380803</v>
+        <v>0.09935526896385791</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1111825381909139</v>
+        <v>0.1109714405496111</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1087789475064906</v>
+        <v>0.1089144689095451</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1279562701751001</v>
+        <v>0.1262375712088614</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1373871644046841</v>
+        <v>0.1377036760697019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1271982864191492</v>
+        <v>0.1292092358664822</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>60979</v>
+        <v>62474</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92962</v>
+        <v>92153</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>160177</v>
+        <v>161734</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>86168</v>
+        <v>86795</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>118629</v>
+        <v>118037</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>197915</v>
+        <v>197996</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>78525</v>
+        <v>79510</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>65420</v>
+        <v>65780</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>153424</v>
+        <v>154299</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>114752</v>
+        <v>114689</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>94401</v>
+        <v>96667</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>201030</v>
+        <v>199440</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10884</v>
+        <v>10984</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10930</v>
+        <v>10655</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24317</v>
+        <v>24597</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24107</v>
+        <v>24603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>23846</v>
+        <v>23106</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43092</v>
+        <v>42817</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>163919</v>
+        <v>164738</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>179764</v>
+        <v>179423</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>356241</v>
+        <v>356685</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>212161</v>
+        <v>209311</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>222132</v>
+        <v>222644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>416562</v>
+        <v>423148</v>
       </c>
     </row>
     <row r="20">
